--- a/data/POISSON_DUAS_MATRIZES.xlsx
+++ b/data/POISSON_DUAS_MATRIZES.xlsx
@@ -41195,7 +41195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AP78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41418,102 +41418,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Liga de Ascenso</t>
+          <t>CONCACAF Champions Cup</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>46071.95833333334</v>
+        <v>46071</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Desamparados</t>
+          <t>Real España</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Carmelita</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.88</v>
+        <v>4.95</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.76</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>1.63</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="N2" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.71</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02000000000000002</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.39</v>
+        <v>1.16</v>
       </c>
       <c r="R2" t="n">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>7.4</v>
+        <v>2.15</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="U2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="X2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AB2" t="n">
         <v>1</v>
       </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AC2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI2" t="n">
         <v>0.8</v>
       </c>
-      <c r="AA2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.84</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>39.1</v>
+        <v>2.64</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -41527,13 +41512,8696 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>ALTA</t>
+          <t>ALTÍSSIMA</t>
         </is>
       </c>
       <c r="AO2" t="n">
         <v>50.8</v>
       </c>
       <c r="AP2" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AFC Champions League Elite</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>46071.29166666666</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Shanghai Port</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Ulsan HD</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.1700000000000002</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO3" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AFC Champions League Elite</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>46071.29166666666</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Melbourne City</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R4" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="S4" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>AWAY</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO4" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ykköscup</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>46071.34375</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EIF</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.09000000000000008</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO5" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1. Lig</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>46071.35416666666</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Keçiörengücü</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Erzurumspor FK</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.1299999999999999</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO6" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1. Lig</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>46071.35416666666</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Serik Belediyespor</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Çorum FK</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO7" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AFC Champions League Two</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>46071.38541666666</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Persib</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ratchaburi Mitrphol FC</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO8" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AFC Champions League Two</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>46071.38541666666</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Tampines Rovers</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Công an Hà Nội</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO9" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Professional Development League</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>46071.41666666666</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Peterborough United U21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Coventry City U21</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>HOME|AWAY</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Elite One</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>46071.41666666666</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Cotonsport</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fortuna Mfou</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.4100000000000001</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1. Lig</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>46071.45833333334</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Vanspor FK</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bodrum FK</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DFB Junioren Pokal</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>46071.45833333334</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt U19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Koln U19</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>AWAY</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Elite One</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>46071.5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gazelle</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fauve Azur Elite</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-0.3300000000000001</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>BAIXA</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Reserve League</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>46071.58333333334</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Hércules U20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cacahuatique U20</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Reserve League</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>46071.58333333334</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FAS U20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Inter U20</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>AWAY</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1. Lig</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>46071.58333333334</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bandırmaspor</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.1299999999999999</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Botola Pro</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>46071.58333333334</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CR Khemis Zemamra</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>RSB Berkane</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.4399999999999999</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Reserve League</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>46071.58333333334</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Platense U20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fuerte San Francisco U20</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>46071.60416666666</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Siwelele</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>-0.8200000000000003</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO20" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>46071.60416666666</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Orlando Pirates</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Mamelodi Sundowns</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="S21" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="T21" t="n">
+        <v>10</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO21" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>46071.60416666666</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Magesi</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R22" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UEFA Women's Champions League</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>46071.61458333334</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Real Madrid W</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Paris W</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="R23" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U23" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Champions League</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>46071.61458333334</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Qarabağ</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.4300000000000002</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="R24" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Super League</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>46071.625</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>AWAY</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>AWAY</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Paulista A2</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>46071.625</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Monte Azul</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.3100000000000001</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>AWAY</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO26" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Super League Women</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>46071.625</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht W</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Zulte-Waregem W</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>0.2599999999999998</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S27" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO27" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>League Cup</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>46071.625</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Vestri</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="K28" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.08000000000000007</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>BAIXA</t>
+        </is>
+      </c>
+      <c r="AO28" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>League Cup</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>46071.625</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Thór</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Völsungur</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>BAIXA</t>
+        </is>
+      </c>
+      <c r="AO29" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Finland Cup</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>46071.625</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>EsPa</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kontu</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>BAIXA</t>
+        </is>
+      </c>
+      <c r="AO30" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AFC Champions League Two</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>46071.63541666666</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Arkadag</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="K31" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO31" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AFC Champions League Two</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>46071.63541666666</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Al-Ahli Doha</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-0.06999999999999984</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>HOME|AWAY</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO32" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Super League Women</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>46071.64583333334</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>St. Liege W</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Genk W</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0.2599999999999998</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>AWAY</t>
+        </is>
+      </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO33" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Piauiense</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>46071.66666666666</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fluminense PI</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Parnahyba</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO34" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>La Liga</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>46071.66666666666</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-0.3099999999999998</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>AWAY</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO35" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Premier League International Cup</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>46071.66666666666</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Crystal Palace U21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Borussia Mönchengladbach U21</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>BAIXA</t>
+        </is>
+      </c>
+      <c r="AO36" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Copa do Brasil</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>46071.6875</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Maguary PE</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Laguna</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K37" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="T37" t="n">
+        <v>7</v>
+      </c>
+      <c r="U37" t="n">
+        <v>7</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>BAIXA</t>
+        </is>
+      </c>
+      <c r="AO37" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Scottish Cup</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>46071.69791666666</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S38" t="n">
+        <v>63</v>
+      </c>
+      <c r="T38" t="n">
+        <v>14</v>
+      </c>
+      <c r="U38" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>BAIXA</t>
+        </is>
+      </c>
+      <c r="AO38" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>League Two</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>46071.69791666666</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Grimsby Town</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Walsall</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-0.1599999999999999</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="S39" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>AWAY</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>BAIXA</t>
+        </is>
+      </c>
+      <c r="AO39" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>League One</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>46071.69791666666</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.2899999999999998</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R40" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>33</v>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>BAIXA</t>
+        </is>
+      </c>
+      <c r="AO40" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>46071.69791666666</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.01000000000000023</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R41" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>7</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO41" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Champions League</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>46071.70833333334</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO42" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>46071.70833333334</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-0.06000000000000005</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>AWAY</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>AWAY</t>
+        </is>
+      </c>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO43" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Champions League</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>46071.70833333334</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Bodø / Glimt</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO44" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>UEFA Women's Champions League</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>46071.70833333334</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Arsenal W</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>OH Leuven W</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J45" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="K45" t="n">
+        <v>44.86</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O45" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U45" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO45" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Champions League</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>46071.70833333334</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Olympiacos F.C.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Bayer 04 Leverkusen</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S46" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="T46" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO46" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Reserve League</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>46071.72916666666</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Municipal Limeño U20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Zacatecoluca U20</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="R47" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="S47" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U47" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>AWAY</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO47" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Reserve League</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>46071.75</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Isidro Metapán U20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Luis Ángel Firpo U20</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM48" t="inlineStr">
+        <is>
+          <t>HOME|AWAY</t>
+        </is>
+      </c>
+      <c r="AN48" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO48" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Primera Division</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>46071.75</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Jalapa</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Rancho Santana</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K49" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM49" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN49" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO49" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Primera Division</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>46071.76041666666</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CD Platense</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Fuerte San Francisco</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.1699999999999999</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R50" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="S50" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="T50" t="n">
+        <v>4</v>
+      </c>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>BAIXA</t>
+        </is>
+      </c>
+      <c r="AO50" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Paulista A2</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>46071.79166666666</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Água Santa</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.4100000000000001</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="S51" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U51" t="n">
+        <v>6</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM51" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN51" t="inlineStr">
+        <is>
+          <t>BAIXA</t>
+        </is>
+      </c>
+      <c r="AO51" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>46071.79166666666</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S52" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T52" t="n">
+        <v>9</v>
+      </c>
+      <c r="U52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM52" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN52" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO52" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Primera Division</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>46071.79166666666</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Hércules</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Cacahuatique</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.08000000000000007</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T53" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AL53" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM53" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN53" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO53" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Paulista A2</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>46071.79166666666</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Sertãozinho</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Juventus-BR</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.05000000000000004</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S54" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3</v>
+      </c>
+      <c r="U54" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="AL54" t="inlineStr">
+        <is>
+          <t>AWAY</t>
+        </is>
+      </c>
+      <c r="AM54" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN54" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO54" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Baiano 1</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>46071.80208333334</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bahia de Feira</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K55" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O55" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-0.07000000000000006</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="T55" t="n">
+        <v>11</v>
+      </c>
+      <c r="U55" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN55" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO55" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Paulista A2</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>46071.8125</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Votuporanguense</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>São Bento</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K56" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AL56" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN56" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO56" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Paulista A2</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>46071.8125</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Grêmio Prudente</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Inter de Limeira</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.3300000000000001</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R57" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="AL57" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN57" t="inlineStr">
+        <is>
+          <t>BAIXA</t>
+        </is>
+      </c>
+      <c r="AO57" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Goiano 1</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>46071.8125</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Aparecidense</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Centro Oeste</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-0.4500000000000002</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R58" t="n">
+        <v>23</v>
+      </c>
+      <c r="S58" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL58" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM58" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN58" t="inlineStr">
+        <is>
+          <t>BAIXA</t>
+        </is>
+      </c>
+      <c r="AO58" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Paulista A2</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>46071.8125</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CA Linense</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>XV de Piracicaba</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.2799999999999998</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="AL59" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM59" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN59" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO59" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Primera Division</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>46071.83333333334</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Walter Ferreti</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Matagalpa</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.1899999999999999</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="S60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T60" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="U60" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="AL60" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM60" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN60" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO60" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Paulista A2</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>46071.83333333334</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Taubaté</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Santo André</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-0.3100000000000001</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S61" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="AL61" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM61" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN61" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO61" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Paulista A2</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>46071.83333333334</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>São José EC</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Ferroviária</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-0.4699999999999998</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R62" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="T62" t="n">
+        <v>3</v>
+      </c>
+      <c r="U62" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN62" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO62" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Alagoano</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>46071.83333333334</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.2799999999999998</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R63" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="T63" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL63" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM63" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN63" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO63" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Copa do Brasil</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>46071.83333333334</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Betim</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Piauí</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="K64" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.4299999999999999</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R64" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="T64" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM64" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN64" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO64" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Copa do Brasil</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>46071.83333333334</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>America SE</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.1400000000000001</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="S65" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="T65" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM65" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN65" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO65" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Copa do Brasil</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>46071.83333333334</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Santa Catarina</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Iape</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K66" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S66" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="AL66" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM66" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AN66" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO66" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Paraense</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>46071.83333333334</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Águia de Marabá</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Remo</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.4100000000000001</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM67" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO67" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Amazonense</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>46071.875</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Manauara</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.5399999999999998</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T68" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="U68" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM68" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN68" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO68" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>46071.89583333334</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Nacional Potosí</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM69" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AN69" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO69" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>46071.89583333334</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Barcelona Guayaquil</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O70" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="P70" t="n">
+        <v>-0.1199999999999999</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R70" t="n">
+        <v>46.62</v>
+      </c>
+      <c r="S70" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3</v>
+      </c>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM70" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN70" t="inlineStr">
+        <is>
+          <t>BAIXA</t>
+        </is>
+      </c>
+      <c r="AO70" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Liga BetPlay</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>46071.89583333334</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Junior FC</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="P71" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R71" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="T71" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U71" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM71" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN71" t="inlineStr">
+        <is>
+          <t>MODERADA</t>
+        </is>
+      </c>
+      <c r="AO71" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Primera Division</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>46071.91666666666</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Municipal Limeño</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Zacatecoluca</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K72" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P72" t="n">
+        <v>-0.1599999999999999</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T72" t="n">
+        <v>6</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM72" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN72" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO72" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Primera Division</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>46071.91666666666</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Real Estelí</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>H&amp;H Export</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="K73" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P73" t="n">
+        <v>-0.1899999999999999</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R73" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="AL73" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM73" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN73" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO73" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Liga de Ascenso</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>46071.91666666666</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Aserrí</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Pitbulls</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P74" t="n">
+        <v>-0.1699999999999997</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="AL74" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AM74" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN74" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO74" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Primera Division</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>46071.9375</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Isidro Metapán</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Firpo</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="P75" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="AL75" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM75" t="inlineStr">
+        <is>
+          <t>AWAY</t>
+        </is>
+      </c>
+      <c r="AN75" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO75" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Primera Division</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>46071.9375</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>FAS</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Inter-ELS</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K76" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P76" t="n">
+        <v>-0.3899999999999999</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S76" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="T76" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="AL76" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>HOME</t>
+        </is>
+      </c>
+      <c r="AN76" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO76" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Primera Division</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>46071.95833333334</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Águila</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Alianza</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K77" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P77" t="n">
+        <v>-0.05999999999999983</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U77" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="V77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="X77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>HOME|AWAY</t>
+        </is>
+      </c>
+      <c r="AN77" t="inlineStr">
+        <is>
+          <t>ALTÍSSIMA</t>
+        </is>
+      </c>
+      <c r="AO77" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Liga de Ascenso</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>46071.95833333334</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Desamparados</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Carmelita</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S78" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2</v>
+      </c>
+      <c r="U78" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="AL78" t="inlineStr">
+        <is>
+          <t>EQUILIBRADO</t>
+        </is>
+      </c>
+      <c r="AM78" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AN78" t="inlineStr">
+        <is>
+          <t>ALTA</t>
+        </is>
+      </c>
+      <c r="AO78" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AP78" t="n">
         <v>35.6</v>
       </c>
     </row>

--- a/data/POISSON_DUAS_MATRIZES.xlsx
+++ b/data/POISSON_DUAS_MATRIZES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\Documents\GitHub\Skynet-V18\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5145FA92-5245-4316-9170-8E9BF0A86085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A2530E-A83C-40ED-9397-098E0E23F0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12750" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Poisson_Media_Gols" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="448">
   <si>
     <t>League</t>
   </si>
@@ -891,9 +891,6 @@
   </si>
   <si>
     <t>Inter</t>
-  </si>
-  <si>
-    <t>Bodø / Glimt</t>
   </si>
   <si>
     <t>inf</t>
@@ -1774,7 +1771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
@@ -18449,7 +18446,7 @@
         <v>288</v>
       </c>
       <c r="F71" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I71">
         <v>1.24</v>
@@ -18488,7 +18485,7 @@
         <v>1.62</v>
       </c>
       <c r="U71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V71">
         <v>0.6</v>
@@ -18569,7 +18566,7 @@
         <v>49.62</v>
       </c>
       <c r="AX71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AY71">
         <v>2.4</v>
@@ -18685,16 +18682,16 @@
     </row>
     <row r="72" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B72" s="2">
         <v>46077.729166666657</v>
       </c>
       <c r="C72" t="s">
+        <v>292</v>
+      </c>
+      <c r="F72" t="s">
         <v>293</v>
-      </c>
-      <c r="F72" t="s">
-        <v>294</v>
       </c>
       <c r="I72">
         <v>1.83</v>
@@ -18820,7 +18817,7 @@
         <v>24.65</v>
       </c>
       <c r="AX72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AY72">
         <v>1</v>
@@ -18936,16 +18933,16 @@
     </row>
     <row r="73" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B73" s="2">
         <v>46077.75</v>
       </c>
       <c r="C73" t="s">
+        <v>295</v>
+      </c>
+      <c r="F73" t="s">
         <v>296</v>
-      </c>
-      <c r="F73" t="s">
-        <v>297</v>
       </c>
       <c r="I73">
         <v>1.49</v>
@@ -18978,7 +18975,7 @@
         <v>14.42</v>
       </c>
       <c r="S73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T73">
         <v>4.25</v>
@@ -19016,16 +19013,16 @@
     </row>
     <row r="74" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B74" s="2">
         <v>46077.791666666657</v>
       </c>
       <c r="C74" t="s">
+        <v>298</v>
+      </c>
+      <c r="F74" t="s">
         <v>299</v>
-      </c>
-      <c r="F74" t="s">
-        <v>300</v>
       </c>
       <c r="I74">
         <v>1.68</v>
@@ -19273,10 +19270,10 @@
         <v>46077.791666666657</v>
       </c>
       <c r="C75" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" t="s">
         <v>301</v>
-      </c>
-      <c r="F75" t="s">
-        <v>302</v>
       </c>
       <c r="I75">
         <v>3.24</v>
@@ -19524,10 +19521,10 @@
         <v>46077.802083333343</v>
       </c>
       <c r="C76" t="s">
+        <v>302</v>
+      </c>
+      <c r="F76" t="s">
         <v>303</v>
-      </c>
-      <c r="F76" t="s">
-        <v>304</v>
       </c>
       <c r="I76">
         <v>2.27</v>
@@ -19775,10 +19772,10 @@
         <v>46077.822916666657</v>
       </c>
       <c r="C77" t="s">
+        <v>304</v>
+      </c>
+      <c r="F77" t="s">
         <v>305</v>
-      </c>
-      <c r="F77" t="s">
-        <v>306</v>
       </c>
       <c r="I77">
         <v>3.28</v>
@@ -20020,16 +20017,16 @@
     </row>
     <row r="78" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B78" s="2">
         <v>46077.875</v>
       </c>
       <c r="C78" t="s">
+        <v>307</v>
+      </c>
+      <c r="F78" t="s">
         <v>308</v>
-      </c>
-      <c r="F78" t="s">
-        <v>309</v>
       </c>
       <c r="P78">
         <v>7.0000000000000062E-2</v>
@@ -20250,16 +20247,16 @@
     </row>
     <row r="79" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B79" s="2">
         <v>46077.875</v>
       </c>
       <c r="C79" t="s">
+        <v>309</v>
+      </c>
+      <c r="F79" t="s">
         <v>310</v>
-      </c>
-      <c r="F79" t="s">
-        <v>311</v>
       </c>
       <c r="P79">
         <v>-0.12000000000000011</v>
@@ -20480,16 +20477,16 @@
     </row>
     <row r="80" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B80" s="2">
         <v>46077.875</v>
       </c>
       <c r="C80" t="s">
+        <v>311</v>
+      </c>
+      <c r="F80" t="s">
         <v>312</v>
-      </c>
-      <c r="F80" t="s">
-        <v>313</v>
       </c>
       <c r="R80">
         <v>-1.25</v>
@@ -20704,16 +20701,16 @@
     </row>
     <row r="81" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B81" s="2">
         <v>46077.875</v>
       </c>
       <c r="C81" t="s">
+        <v>313</v>
+      </c>
+      <c r="F81" t="s">
         <v>314</v>
-      </c>
-      <c r="F81" t="s">
-        <v>315</v>
       </c>
       <c r="P81">
         <v>-1.0000000000000011E-2</v>
@@ -20934,16 +20931,16 @@
     </row>
     <row r="82" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B82" s="2">
         <v>46077.875</v>
       </c>
       <c r="C82" t="s">
+        <v>315</v>
+      </c>
+      <c r="F82" t="s">
         <v>316</v>
-      </c>
-      <c r="F82" t="s">
-        <v>317</v>
       </c>
       <c r="P82">
         <v>-0.24</v>
@@ -21164,16 +21161,16 @@
     </row>
     <row r="83" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B83" s="2">
         <v>46077.875</v>
       </c>
       <c r="C83" t="s">
+        <v>317</v>
+      </c>
+      <c r="F83" t="s">
         <v>318</v>
-      </c>
-      <c r="F83" t="s">
-        <v>319</v>
       </c>
       <c r="P83">
         <v>6.0000000000000053E-2</v>
@@ -21394,16 +21391,16 @@
     </row>
     <row r="84" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B84" s="2">
         <v>46077.875</v>
       </c>
       <c r="C84" t="s">
+        <v>319</v>
+      </c>
+      <c r="F84" t="s">
         <v>320</v>
-      </c>
-      <c r="F84" t="s">
-        <v>321</v>
       </c>
       <c r="P84">
         <v>-0.21000000000000019</v>
@@ -21459,10 +21456,10 @@
         <v>46077.875</v>
       </c>
       <c r="C85" t="s">
+        <v>321</v>
+      </c>
+      <c r="F85" t="s">
         <v>322</v>
-      </c>
-      <c r="F85" t="s">
-        <v>323</v>
       </c>
       <c r="I85">
         <v>5.01</v>
@@ -21704,16 +21701,16 @@
     </row>
     <row r="86" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B86" s="2">
         <v>46077.875</v>
       </c>
       <c r="C86" t="s">
+        <v>324</v>
+      </c>
+      <c r="F86" t="s">
         <v>325</v>
-      </c>
-      <c r="F86" t="s">
-        <v>326</v>
       </c>
       <c r="I86">
         <v>1.42</v>
@@ -21839,7 +21836,7 @@
         <v>13.43</v>
       </c>
       <c r="AX86" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AY86">
         <v>2</v>
@@ -21955,16 +21952,16 @@
     </row>
     <row r="87" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B87" s="2">
         <v>46077.875</v>
       </c>
       <c r="C87" t="s">
+        <v>327</v>
+      </c>
+      <c r="F87" t="s">
         <v>328</v>
-      </c>
-      <c r="F87" t="s">
-        <v>329</v>
       </c>
       <c r="I87">
         <v>1.59</v>
@@ -22035,16 +22032,16 @@
     </row>
     <row r="88" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B88" s="2">
         <v>46077.875</v>
       </c>
       <c r="C88" t="s">
+        <v>329</v>
+      </c>
+      <c r="F88" t="s">
         <v>330</v>
-      </c>
-      <c r="F88" t="s">
-        <v>331</v>
       </c>
       <c r="I88">
         <v>1.56</v>
@@ -22170,7 +22167,7 @@
         <v>81.569999999999993</v>
       </c>
       <c r="AX88" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AY88">
         <v>2.2000000000000002</v>
@@ -22286,16 +22283,16 @@
     </row>
     <row r="89" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B89" s="2">
         <v>46077.895833333343</v>
       </c>
       <c r="C89" t="s">
+        <v>332</v>
+      </c>
+      <c r="F89" t="s">
         <v>333</v>
-      </c>
-      <c r="F89" t="s">
-        <v>334</v>
       </c>
       <c r="I89">
         <v>1.41</v>
@@ -22543,10 +22540,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C90" t="s">
+        <v>334</v>
+      </c>
+      <c r="F90" t="s">
         <v>335</v>
-      </c>
-      <c r="F90" t="s">
-        <v>336</v>
       </c>
       <c r="I90">
         <v>1.1399999999999999</v>
@@ -22791,10 +22788,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C91" t="s">
+        <v>336</v>
+      </c>
+      <c r="F91" t="s">
         <v>337</v>
-      </c>
-      <c r="F91" t="s">
-        <v>338</v>
       </c>
       <c r="I91">
         <v>1.26</v>
@@ -22868,10 +22865,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C92" t="s">
+        <v>338</v>
+      </c>
+      <c r="F92" t="s">
         <v>339</v>
-      </c>
-      <c r="F92" t="s">
-        <v>340</v>
       </c>
       <c r="I92">
         <v>1.79</v>
@@ -23113,16 +23110,16 @@
     </row>
     <row r="93" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B93" s="2">
         <v>46077.895833333343</v>
       </c>
       <c r="C93" t="s">
+        <v>340</v>
+      </c>
+      <c r="F93" t="s">
         <v>341</v>
-      </c>
-      <c r="F93" t="s">
-        <v>342</v>
       </c>
       <c r="I93">
         <v>1.51</v>
@@ -23248,7 +23245,7 @@
         <v>41.68</v>
       </c>
       <c r="AX93" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AY93">
         <v>1.6</v>
@@ -23364,16 +23361,16 @@
     </row>
     <row r="94" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B94" s="2">
         <v>46077.916666666657</v>
       </c>
       <c r="C94" t="s">
+        <v>344</v>
+      </c>
+      <c r="F94" t="s">
         <v>345</v>
-      </c>
-      <c r="F94" t="s">
-        <v>346</v>
       </c>
       <c r="I94">
         <v>1.1399999999999999</v>
@@ -23499,7 +23496,7 @@
         <v>9</v>
       </c>
       <c r="AX94" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AY94">
         <v>1.8</v>
@@ -23621,10 +23618,10 @@
         <v>46077.916666666657</v>
       </c>
       <c r="C95" t="s">
+        <v>347</v>
+      </c>
+      <c r="F95" t="s">
         <v>348</v>
-      </c>
-      <c r="F95" t="s">
-        <v>349</v>
       </c>
       <c r="I95">
         <v>3.52</v>
@@ -23873,7 +23870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CI95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -23996,10 +23995,10 @@
         <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>41</v>
@@ -24961,7 +24960,7 @@
         <v>0.43</v>
       </c>
       <c r="AX5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:87" x14ac:dyDescent="0.25">
@@ -25854,7 +25853,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="AX9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AY9">
         <v>1</v>
@@ -26105,7 +26104,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="AX10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AY10">
         <v>1.8</v>
@@ -26290,7 +26289,7 @@
         <v>0.54</v>
       </c>
       <c r="AX11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:87" x14ac:dyDescent="0.25">
@@ -26681,7 +26680,7 @@
         <v>16.47</v>
       </c>
       <c r="AX13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AY13">
         <v>2</v>
@@ -26854,7 +26853,7 @@
         <v>0.7</v>
       </c>
       <c r="AX14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:87" x14ac:dyDescent="0.25">
@@ -27496,7 +27495,7 @@
         <v>33.28</v>
       </c>
       <c r="AX17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AY17">
         <v>2.6</v>
@@ -27747,7 +27746,7 @@
         <v>27.21</v>
       </c>
       <c r="AX18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AY18">
         <v>1.8</v>
@@ -28676,7 +28675,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AX22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:87" x14ac:dyDescent="0.25">
@@ -29067,7 +29066,7 @@
         <v>16.29</v>
       </c>
       <c r="AX24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AY24">
         <v>1.2</v>
@@ -29820,7 +29819,7 @@
         <v>14.74</v>
       </c>
       <c r="AX27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AY27">
         <v>2</v>
@@ -30071,7 +30070,7 @@
         <v>27.23</v>
       </c>
       <c r="AX28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AY28">
         <v>1.4</v>
@@ -30334,7 +30333,7 @@
         <v>27.11</v>
       </c>
       <c r="AX29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AY29">
         <v>1.4</v>
@@ -31338,7 +31337,7 @@
         <v>14.95</v>
       </c>
       <c r="AX33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AY33">
         <v>1.4</v>
@@ -32091,7 +32090,7 @@
         <v>44.83</v>
       </c>
       <c r="AX36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AY36">
         <v>1.6</v>
@@ -32530,7 +32529,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="AX38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:87" x14ac:dyDescent="0.25">
@@ -33402,7 +33401,7 @@
         <v>40.6</v>
       </c>
       <c r="AX42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AY42">
         <v>2.4</v>
@@ -34155,7 +34154,7 @@
         <v>24.62</v>
       </c>
       <c r="AX45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AY45">
         <v>1.4</v>
@@ -36142,7 +36141,7 @@
         <v>33.26</v>
       </c>
       <c r="AX53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AY53">
         <v>1.4</v>
@@ -36895,7 +36894,7 @@
         <v>27.23</v>
       </c>
       <c r="AX56" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AY56">
         <v>3</v>
@@ -37899,7 +37898,7 @@
         <v>29.41</v>
       </c>
       <c r="AX60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AY60">
         <v>1.8</v>
@@ -40546,7 +40545,7 @@
         <v>288</v>
       </c>
       <c r="F71" t="s">
-        <v>289</v>
+        <v>447</v>
       </c>
       <c r="I71">
         <v>1.24</v>
@@ -40585,7 +40584,7 @@
         <v>1.62</v>
       </c>
       <c r="U71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V71">
         <v>0.6</v>
@@ -40666,7 +40665,7 @@
         <v>70.180000000000007</v>
       </c>
       <c r="AX71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AY71">
         <v>2.4</v>
@@ -40782,16 +40781,16 @@
     </row>
     <row r="72" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B72" s="2">
         <v>46077.729166666657</v>
       </c>
       <c r="C72" t="s">
+        <v>292</v>
+      </c>
+      <c r="F72" t="s">
         <v>293</v>
-      </c>
-      <c r="F72" t="s">
-        <v>294</v>
       </c>
       <c r="I72">
         <v>1.83</v>
@@ -41033,16 +41032,16 @@
     </row>
     <row r="73" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B73" s="2">
         <v>46077.75</v>
       </c>
       <c r="C73" t="s">
+        <v>295</v>
+      </c>
+      <c r="F73" t="s">
         <v>296</v>
-      </c>
-      <c r="F73" t="s">
-        <v>297</v>
       </c>
       <c r="I73">
         <v>1.49</v>
@@ -41075,7 +41074,7 @@
         <v>14.42</v>
       </c>
       <c r="S73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T73">
         <v>4.25</v>
@@ -41108,21 +41107,21 @@
         <v>0.62</v>
       </c>
       <c r="AX73" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B74" s="2">
         <v>46077.791666666657</v>
       </c>
       <c r="C74" t="s">
+        <v>298</v>
+      </c>
+      <c r="F74" t="s">
         <v>299</v>
-      </c>
-      <c r="F74" t="s">
-        <v>300</v>
       </c>
       <c r="I74">
         <v>1.68</v>
@@ -41248,7 +41247,7 @@
         <v>33.17</v>
       </c>
       <c r="AX74" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AY74">
         <v>1.6</v>
@@ -41370,10 +41369,10 @@
         <v>46077.791666666657</v>
       </c>
       <c r="C75" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" t="s">
         <v>301</v>
-      </c>
-      <c r="F75" t="s">
-        <v>302</v>
       </c>
       <c r="I75">
         <v>3.24</v>
@@ -41621,10 +41620,10 @@
         <v>46077.802083333343</v>
       </c>
       <c r="C76" t="s">
+        <v>302</v>
+      </c>
+      <c r="F76" t="s">
         <v>303</v>
-      </c>
-      <c r="F76" t="s">
-        <v>304</v>
       </c>
       <c r="I76">
         <v>2.27</v>
@@ -41750,7 +41749,7 @@
         <v>18.27</v>
       </c>
       <c r="AX76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AY76">
         <v>1.4</v>
@@ -41872,10 +41871,10 @@
         <v>46077.822916666657</v>
       </c>
       <c r="C77" t="s">
+        <v>304</v>
+      </c>
+      <c r="F77" t="s">
         <v>305</v>
-      </c>
-      <c r="F77" t="s">
-        <v>306</v>
       </c>
       <c r="I77">
         <v>3.28</v>
@@ -42117,16 +42116,16 @@
     </row>
     <row r="78" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B78" s="2">
         <v>46077.875</v>
       </c>
       <c r="C78" t="s">
+        <v>307</v>
+      </c>
+      <c r="F78" t="s">
         <v>308</v>
-      </c>
-      <c r="F78" t="s">
-        <v>309</v>
       </c>
       <c r="P78">
         <v>7.0000000000000062E-2</v>
@@ -42347,16 +42346,16 @@
     </row>
     <row r="79" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B79" s="2">
         <v>46077.875</v>
       </c>
       <c r="C79" t="s">
+        <v>309</v>
+      </c>
+      <c r="F79" t="s">
         <v>310</v>
-      </c>
-      <c r="F79" t="s">
-        <v>311</v>
       </c>
       <c r="P79">
         <v>-0.12000000000000011</v>
@@ -42577,16 +42576,16 @@
     </row>
     <row r="80" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B80" s="2">
         <v>46077.875</v>
       </c>
       <c r="C80" t="s">
+        <v>311</v>
+      </c>
+      <c r="F80" t="s">
         <v>312</v>
-      </c>
-      <c r="F80" t="s">
-        <v>313</v>
       </c>
       <c r="R80">
         <v>-1.25</v>
@@ -42801,16 +42800,16 @@
     </row>
     <row r="81" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B81" s="2">
         <v>46077.875</v>
       </c>
       <c r="C81" t="s">
+        <v>313</v>
+      </c>
+      <c r="F81" t="s">
         <v>314</v>
-      </c>
-      <c r="F81" t="s">
-        <v>315</v>
       </c>
       <c r="P81">
         <v>-1.0000000000000011E-2</v>
@@ -43031,16 +43030,16 @@
     </row>
     <row r="82" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B82" s="2">
         <v>46077.875</v>
       </c>
       <c r="C82" t="s">
+        <v>315</v>
+      </c>
+      <c r="F82" t="s">
         <v>316</v>
-      </c>
-      <c r="F82" t="s">
-        <v>317</v>
       </c>
       <c r="P82">
         <v>-0.24</v>
@@ -43261,16 +43260,16 @@
     </row>
     <row r="83" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B83" s="2">
         <v>46077.875</v>
       </c>
       <c r="C83" t="s">
+        <v>317</v>
+      </c>
+      <c r="F83" t="s">
         <v>318</v>
-      </c>
-      <c r="F83" t="s">
-        <v>319</v>
       </c>
       <c r="P83">
         <v>6.0000000000000053E-2</v>
@@ -43491,16 +43490,16 @@
     </row>
     <row r="84" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B84" s="2">
         <v>46077.875</v>
       </c>
       <c r="C84" t="s">
+        <v>319</v>
+      </c>
+      <c r="F84" t="s">
         <v>320</v>
-      </c>
-      <c r="F84" t="s">
-        <v>321</v>
       </c>
       <c r="P84">
         <v>-0.21000000000000019</v>
@@ -43545,7 +43544,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="AX84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:87" x14ac:dyDescent="0.25">
@@ -43556,10 +43555,10 @@
         <v>46077.875</v>
       </c>
       <c r="C85" t="s">
+        <v>321</v>
+      </c>
+      <c r="F85" t="s">
         <v>322</v>
-      </c>
-      <c r="F85" t="s">
-        <v>323</v>
       </c>
       <c r="I85">
         <v>5.01</v>
@@ -43801,16 +43800,16 @@
     </row>
     <row r="86" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B86" s="2">
         <v>46077.875</v>
       </c>
       <c r="C86" t="s">
+        <v>324</v>
+      </c>
+      <c r="F86" t="s">
         <v>325</v>
-      </c>
-      <c r="F86" t="s">
-        <v>326</v>
       </c>
       <c r="I86">
         <v>1.42</v>
@@ -43936,7 +43935,7 @@
         <v>22.19</v>
       </c>
       <c r="AX86" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AY86">
         <v>2</v>
@@ -44052,16 +44051,16 @@
     </row>
     <row r="87" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B87" s="2">
         <v>46077.875</v>
       </c>
       <c r="C87" t="s">
+        <v>327</v>
+      </c>
+      <c r="F87" t="s">
         <v>328</v>
-      </c>
-      <c r="F87" t="s">
-        <v>329</v>
       </c>
       <c r="I87">
         <v>1.59</v>
@@ -44127,21 +44126,21 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="AX87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B88" s="2">
         <v>46077.875</v>
       </c>
       <c r="C88" t="s">
+        <v>329</v>
+      </c>
+      <c r="F88" t="s">
         <v>330</v>
-      </c>
-      <c r="F88" t="s">
-        <v>331</v>
       </c>
       <c r="I88">
         <v>1.56</v>
@@ -44383,16 +44382,16 @@
     </row>
     <row r="89" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B89" s="2">
         <v>46077.895833333343</v>
       </c>
       <c r="C89" t="s">
+        <v>332</v>
+      </c>
+      <c r="F89" t="s">
         <v>333</v>
-      </c>
-      <c r="F89" t="s">
-        <v>334</v>
       </c>
       <c r="I89">
         <v>1.41</v>
@@ -44640,10 +44639,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C90" t="s">
+        <v>334</v>
+      </c>
+      <c r="F90" t="s">
         <v>335</v>
-      </c>
-      <c r="F90" t="s">
-        <v>336</v>
       </c>
       <c r="I90">
         <v>1.1399999999999999</v>
@@ -44766,7 +44765,7 @@
         <v>30.1</v>
       </c>
       <c r="AX90" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AY90">
         <v>2.2000000000000002</v>
@@ -44888,10 +44887,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C91" t="s">
+        <v>336</v>
+      </c>
+      <c r="F91" t="s">
         <v>337</v>
-      </c>
-      <c r="F91" t="s">
-        <v>338</v>
       </c>
       <c r="I91">
         <v>1.26</v>
@@ -44954,7 +44953,7 @@
         <v>0.52</v>
       </c>
       <c r="AX91" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="1:87" x14ac:dyDescent="0.25">
@@ -44965,10 +44964,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C92" t="s">
+        <v>338</v>
+      </c>
+      <c r="F92" t="s">
         <v>339</v>
-      </c>
-      <c r="F92" t="s">
-        <v>340</v>
       </c>
       <c r="I92">
         <v>1.79</v>
@@ -45094,7 +45093,7 @@
         <v>20.14</v>
       </c>
       <c r="AX92" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AY92">
         <v>1.2</v>
@@ -45210,16 +45209,16 @@
     </row>
     <row r="93" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B93" s="2">
         <v>46077.895833333343</v>
       </c>
       <c r="C93" t="s">
+        <v>340</v>
+      </c>
+      <c r="F93" t="s">
         <v>341</v>
-      </c>
-      <c r="F93" t="s">
-        <v>342</v>
       </c>
       <c r="I93">
         <v>1.51</v>
@@ -45461,16 +45460,16 @@
     </row>
     <row r="94" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B94" s="2">
         <v>46077.916666666657</v>
       </c>
       <c r="C94" t="s">
+        <v>344</v>
+      </c>
+      <c r="F94" t="s">
         <v>345</v>
-      </c>
-      <c r="F94" t="s">
-        <v>346</v>
       </c>
       <c r="I94">
         <v>1.1399999999999999</v>
@@ -45596,7 +45595,7 @@
         <v>9.84</v>
       </c>
       <c r="AX94" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AY94">
         <v>1.8</v>
@@ -45718,10 +45717,10 @@
         <v>46077.916666666657</v>
       </c>
       <c r="C95" t="s">
+        <v>347</v>
+      </c>
+      <c r="F95" t="s">
         <v>348</v>
-      </c>
-      <c r="F95" t="s">
-        <v>349</v>
       </c>
       <c r="I95">
         <v>3.52</v>
@@ -45970,7 +45969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CI95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -46093,10 +46094,10 @@
         <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>41</v>
@@ -46580,7 +46581,7 @@
         <v>0.61</v>
       </c>
       <c r="AX3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
@@ -46911,7 +46912,7 @@
         <v>0.43</v>
       </c>
       <c r="AX5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:87" x14ac:dyDescent="0.25">
@@ -47553,7 +47554,7 @@
         <v>4.87</v>
       </c>
       <c r="AX8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AY8">
         <v>1.2</v>
@@ -47804,7 +47805,7 @@
         <v>25.48</v>
       </c>
       <c r="AX9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AY9">
         <v>1</v>
@@ -48055,7 +48056,7 @@
         <v>9.39</v>
       </c>
       <c r="AX10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AY10">
         <v>1.8</v>
@@ -48240,7 +48241,7 @@
         <v>0.54</v>
       </c>
       <c r="AX11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:87" x14ac:dyDescent="0.25">
@@ -48804,7 +48805,7 @@
         <v>0.7</v>
       </c>
       <c r="AX14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:87" x14ac:dyDescent="0.25">
@@ -49195,7 +49196,7 @@
         <v>44.88</v>
       </c>
       <c r="AX16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AY16">
         <v>1.8</v>
@@ -49446,7 +49447,7 @@
         <v>36.25</v>
       </c>
       <c r="AX17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AY17">
         <v>2.6</v>
@@ -50399,7 +50400,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AX21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:87" x14ac:dyDescent="0.25">
@@ -50479,7 +50480,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AX22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:87" x14ac:dyDescent="0.25">
@@ -50619,7 +50620,7 @@
         <v>19.690000000000001</v>
       </c>
       <c r="AX23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AY23">
         <v>3</v>
@@ -50870,7 +50871,7 @@
         <v>17.12</v>
       </c>
       <c r="AX24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AY24">
         <v>1.2</v>
@@ -51623,7 +51624,7 @@
         <v>12</v>
       </c>
       <c r="AX27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AY27">
         <v>2</v>
@@ -52388,7 +52389,7 @@
         <v>8.06</v>
       </c>
       <c r="AX30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AY30">
         <v>2.2000000000000002</v>
@@ -52890,7 +52891,7 @@
         <v>38.51</v>
       </c>
       <c r="AX32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AY32">
         <v>1.6</v>
@@ -53392,7 +53393,7 @@
         <v>54.31</v>
       </c>
       <c r="AX34" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AY34">
         <v>1.8</v>
@@ -53643,7 +53644,7 @@
         <v>53.1</v>
       </c>
       <c r="AX35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AY35">
         <v>0.8</v>
@@ -54333,7 +54334,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="AX38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:87" x14ac:dyDescent="0.25">
@@ -54473,7 +54474,7 @@
         <v>75.56</v>
       </c>
       <c r="AX39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AY39">
         <v>1.6</v>
@@ -54918,7 +54919,7 @@
         <v>0.78</v>
       </c>
       <c r="AX41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:87" x14ac:dyDescent="0.25">
@@ -55058,7 +55059,7 @@
         <v>27.89</v>
       </c>
       <c r="AX42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AY42">
         <v>2.4</v>
@@ -55309,7 +55310,7 @@
         <v>32.840000000000003</v>
       </c>
       <c r="AX43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AY43">
         <v>2.4</v>
@@ -55560,7 +55561,7 @@
         <v>55.01</v>
       </c>
       <c r="AX44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AY44">
         <v>1.8</v>
@@ -56005,7 +56006,7 @@
         <v>0.84</v>
       </c>
       <c r="AX46" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:87" x14ac:dyDescent="0.25">
@@ -56145,7 +56146,7 @@
         <v>33.75</v>
       </c>
       <c r="AX47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AY47">
         <v>1.6</v>
@@ -56647,7 +56648,7 @@
         <v>52.02</v>
       </c>
       <c r="AX49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AY49">
         <v>1.4</v>
@@ -56898,7 +56899,7 @@
         <v>54.98</v>
       </c>
       <c r="AX50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AY50">
         <v>1.6</v>
@@ -57149,7 +57150,7 @@
         <v>8.69</v>
       </c>
       <c r="AX51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AY51">
         <v>1.4</v>
@@ -58153,7 +58154,7 @@
         <v>48.96</v>
       </c>
       <c r="AX55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AY55">
         <v>2</v>
@@ -59157,7 +59158,7 @@
         <v>19.97</v>
       </c>
       <c r="AX59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AY59">
         <v>1.8</v>
@@ -59659,7 +59660,7 @@
         <v>27.68</v>
       </c>
       <c r="AX61" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AY61">
         <v>1.2</v>
@@ -59910,7 +59911,7 @@
         <v>42.84</v>
       </c>
       <c r="AX62" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AY62">
         <v>2</v>
@@ -60926,7 +60927,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="AX66" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AY66">
         <v>2.4</v>
@@ -61177,7 +61178,7 @@
         <v>34.4</v>
       </c>
       <c r="AX67" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AY67">
         <v>1.6</v>
@@ -61679,7 +61680,7 @@
         <v>4.83</v>
       </c>
       <c r="AX69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AY69">
         <v>2.4</v>
@@ -61930,7 +61931,7 @@
         <v>2.65</v>
       </c>
       <c r="AX70" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AY70">
         <v>0.8</v>
@@ -62055,7 +62056,7 @@
         <v>288</v>
       </c>
       <c r="F71" t="s">
-        <v>289</v>
+        <v>447</v>
       </c>
       <c r="I71">
         <v>1.24</v>
@@ -62094,7 +62095,7 @@
         <v>1.62</v>
       </c>
       <c r="U71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V71">
         <v>0.6</v>
@@ -62175,7 +62176,7 @@
         <v>11.83</v>
       </c>
       <c r="AX71" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AY71">
         <v>2.4</v>
@@ -62291,16 +62292,16 @@
     </row>
     <row r="72" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B72" s="2">
         <v>46077.729166666657</v>
       </c>
       <c r="C72" t="s">
+        <v>292</v>
+      </c>
+      <c r="F72" t="s">
         <v>293</v>
-      </c>
-      <c r="F72" t="s">
-        <v>294</v>
       </c>
       <c r="I72">
         <v>1.83</v>
@@ -62426,7 +62427,7 @@
         <v>14.88</v>
       </c>
       <c r="AX72" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AY72">
         <v>1</v>
@@ -62542,16 +62543,16 @@
     </row>
     <row r="73" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B73" s="2">
         <v>46077.75</v>
       </c>
       <c r="C73" t="s">
+        <v>295</v>
+      </c>
+      <c r="F73" t="s">
         <v>296</v>
-      </c>
-      <c r="F73" t="s">
-        <v>297</v>
       </c>
       <c r="I73">
         <v>1.49</v>
@@ -62584,7 +62585,7 @@
         <v>14.42</v>
       </c>
       <c r="S73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T73">
         <v>4.25</v>
@@ -62617,21 +62618,21 @@
         <v>0.62</v>
       </c>
       <c r="AX73" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B74" s="2">
         <v>46077.791666666657</v>
       </c>
       <c r="C74" t="s">
+        <v>298</v>
+      </c>
+      <c r="F74" t="s">
         <v>299</v>
-      </c>
-      <c r="F74" t="s">
-        <v>300</v>
       </c>
       <c r="I74">
         <v>1.68</v>
@@ -62757,7 +62758,7 @@
         <v>6.61</v>
       </c>
       <c r="AX74" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AY74">
         <v>1.6</v>
@@ -62879,10 +62880,10 @@
         <v>46077.791666666657</v>
       </c>
       <c r="C75" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" t="s">
         <v>301</v>
-      </c>
-      <c r="F75" t="s">
-        <v>302</v>
       </c>
       <c r="I75">
         <v>3.24</v>
@@ -63130,10 +63131,10 @@
         <v>46077.802083333343</v>
       </c>
       <c r="C76" t="s">
+        <v>302</v>
+      </c>
+      <c r="F76" t="s">
         <v>303</v>
-      </c>
-      <c r="F76" t="s">
-        <v>304</v>
       </c>
       <c r="I76">
         <v>2.27</v>
@@ -63381,10 +63382,10 @@
         <v>46077.822916666657</v>
       </c>
       <c r="C77" t="s">
+        <v>304</v>
+      </c>
+      <c r="F77" t="s">
         <v>305</v>
-      </c>
-      <c r="F77" t="s">
-        <v>306</v>
       </c>
       <c r="I77">
         <v>3.28</v>
@@ -63510,7 +63511,7 @@
         <v>42.85</v>
       </c>
       <c r="AX77" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AY77">
         <v>1</v>
@@ -63626,16 +63627,16 @@
     </row>
     <row r="78" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B78" s="2">
         <v>46077.875</v>
       </c>
       <c r="C78" t="s">
+        <v>307</v>
+      </c>
+      <c r="F78" t="s">
         <v>308</v>
-      </c>
-      <c r="F78" t="s">
-        <v>309</v>
       </c>
       <c r="P78">
         <v>7.0000000000000062E-2</v>
@@ -63704,21 +63705,21 @@
         <v>0.59</v>
       </c>
       <c r="AX78" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B79" s="2">
         <v>46077.875</v>
       </c>
       <c r="C79" t="s">
+        <v>309</v>
+      </c>
+      <c r="F79" t="s">
         <v>310</v>
-      </c>
-      <c r="F79" t="s">
-        <v>311</v>
       </c>
       <c r="P79">
         <v>-0.12000000000000011</v>
@@ -63787,21 +63788,21 @@
         <v>0.41</v>
       </c>
       <c r="AX79" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B80" s="2">
         <v>46077.875</v>
       </c>
       <c r="C80" t="s">
+        <v>311</v>
+      </c>
+      <c r="F80" t="s">
         <v>312</v>
-      </c>
-      <c r="F80" t="s">
-        <v>313</v>
       </c>
       <c r="R80">
         <v>-1.25</v>
@@ -63864,21 +63865,21 @@
         <v>0.75</v>
       </c>
       <c r="AX80" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B81" s="2">
         <v>46077.875</v>
       </c>
       <c r="C81" t="s">
+        <v>313</v>
+      </c>
+      <c r="F81" t="s">
         <v>314</v>
-      </c>
-      <c r="F81" t="s">
-        <v>315</v>
       </c>
       <c r="P81">
         <v>-1.0000000000000011E-2</v>
@@ -63947,21 +63948,21 @@
         <v>1.08</v>
       </c>
       <c r="AX81" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B82" s="2">
         <v>46077.875</v>
       </c>
       <c r="C82" t="s">
+        <v>315</v>
+      </c>
+      <c r="F82" t="s">
         <v>316</v>
-      </c>
-      <c r="F82" t="s">
-        <v>317</v>
       </c>
       <c r="P82">
         <v>-0.24</v>
@@ -64030,21 +64031,21 @@
         <v>1.24</v>
       </c>
       <c r="AX82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B83" s="2">
         <v>46077.875</v>
       </c>
       <c r="C83" t="s">
+        <v>317</v>
+      </c>
+      <c r="F83" t="s">
         <v>318</v>
-      </c>
-      <c r="F83" t="s">
-        <v>319</v>
       </c>
       <c r="P83">
         <v>6.0000000000000053E-2</v>
@@ -64113,21 +64114,21 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="AX83" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B84" s="2">
         <v>46077.875</v>
       </c>
       <c r="C84" t="s">
+        <v>319</v>
+      </c>
+      <c r="F84" t="s">
         <v>320</v>
-      </c>
-      <c r="F84" t="s">
-        <v>321</v>
       </c>
       <c r="P84">
         <v>-0.21000000000000019</v>
@@ -64172,7 +64173,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="AX84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:87" x14ac:dyDescent="0.25">
@@ -64183,10 +64184,10 @@
         <v>46077.875</v>
       </c>
       <c r="C85" t="s">
+        <v>321</v>
+      </c>
+      <c r="F85" t="s">
         <v>322</v>
-      </c>
-      <c r="F85" t="s">
-        <v>323</v>
       </c>
       <c r="I85">
         <v>5.01</v>
@@ -64312,7 +64313,7 @@
         <v>47.6</v>
       </c>
       <c r="AX85" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AY85">
         <v>1.8</v>
@@ -64428,16 +64429,16 @@
     </row>
     <row r="86" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B86" s="2">
         <v>46077.875</v>
       </c>
       <c r="C86" t="s">
+        <v>324</v>
+      </c>
+      <c r="F86" t="s">
         <v>325</v>
-      </c>
-      <c r="F86" t="s">
-        <v>326</v>
       </c>
       <c r="I86">
         <v>1.42</v>
@@ -64563,7 +64564,7 @@
         <v>25.01</v>
       </c>
       <c r="AX86" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AY86">
         <v>2</v>
@@ -64679,16 +64680,16 @@
     </row>
     <row r="87" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B87" s="2">
         <v>46077.875</v>
       </c>
       <c r="C87" t="s">
+        <v>327</v>
+      </c>
+      <c r="F87" t="s">
         <v>328</v>
-      </c>
-      <c r="F87" t="s">
-        <v>329</v>
       </c>
       <c r="I87">
         <v>1.59</v>
@@ -64754,21 +64755,21 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="AX87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B88" s="2">
         <v>46077.875</v>
       </c>
       <c r="C88" t="s">
+        <v>329</v>
+      </c>
+      <c r="F88" t="s">
         <v>330</v>
-      </c>
-      <c r="F88" t="s">
-        <v>331</v>
       </c>
       <c r="I88">
         <v>1.56</v>
@@ -65010,16 +65011,16 @@
     </row>
     <row r="89" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B89" s="2">
         <v>46077.895833333343</v>
       </c>
       <c r="C89" t="s">
+        <v>332</v>
+      </c>
+      <c r="F89" t="s">
         <v>333</v>
-      </c>
-      <c r="F89" t="s">
-        <v>334</v>
       </c>
       <c r="I89">
         <v>1.41</v>
@@ -65145,7 +65146,7 @@
         <v>31.22</v>
       </c>
       <c r="AX89" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AY89">
         <v>1</v>
@@ -65267,10 +65268,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C90" t="s">
+        <v>334</v>
+      </c>
+      <c r="F90" t="s">
         <v>335</v>
-      </c>
-      <c r="F90" t="s">
-        <v>336</v>
       </c>
       <c r="I90">
         <v>1.1399999999999999</v>
@@ -65393,7 +65394,7 @@
         <v>10.46</v>
       </c>
       <c r="AX90" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AY90">
         <v>2.2000000000000002</v>
@@ -65515,10 +65516,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C91" t="s">
+        <v>336</v>
+      </c>
+      <c r="F91" t="s">
         <v>337</v>
-      </c>
-      <c r="F91" t="s">
-        <v>338</v>
       </c>
       <c r="I91">
         <v>1.26</v>
@@ -65581,7 +65582,7 @@
         <v>0.52</v>
       </c>
       <c r="AX91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:87" x14ac:dyDescent="0.25">
@@ -65592,10 +65593,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C92" t="s">
+        <v>338</v>
+      </c>
+      <c r="F92" t="s">
         <v>339</v>
-      </c>
-      <c r="F92" t="s">
-        <v>340</v>
       </c>
       <c r="I92">
         <v>1.79</v>
@@ -65721,7 +65722,7 @@
         <v>31.19</v>
       </c>
       <c r="AX92" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AY92">
         <v>1.2</v>
@@ -65837,16 +65838,16 @@
     </row>
     <row r="93" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B93" s="2">
         <v>46077.895833333343</v>
       </c>
       <c r="C93" t="s">
+        <v>340</v>
+      </c>
+      <c r="F93" t="s">
         <v>341</v>
-      </c>
-      <c r="F93" t="s">
-        <v>342</v>
       </c>
       <c r="I93">
         <v>1.51</v>
@@ -66088,16 +66089,16 @@
     </row>
     <row r="94" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B94" s="2">
         <v>46077.916666666657</v>
       </c>
       <c r="C94" t="s">
+        <v>344</v>
+      </c>
+      <c r="F94" t="s">
         <v>345</v>
-      </c>
-      <c r="F94" t="s">
-        <v>346</v>
       </c>
       <c r="I94">
         <v>1.1399999999999999</v>
@@ -66223,7 +66224,7 @@
         <v>0</v>
       </c>
       <c r="AX94" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AY94">
         <v>1.8</v>
@@ -66345,10 +66346,10 @@
         <v>46077.916666666657</v>
       </c>
       <c r="C95" t="s">
+        <v>347</v>
+      </c>
+      <c r="F95" t="s">
         <v>348</v>
-      </c>
-      <c r="F95" t="s">
-        <v>349</v>
       </c>
       <c r="I95">
         <v>3.52</v>
@@ -66474,7 +66475,7 @@
         <v>66.02</v>
       </c>
       <c r="AX95" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AY95">
         <v>1.8</v>
@@ -66597,7 +66598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AT95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -66714,31 +66717,31 @@
         <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
@@ -66851,13 +66854,13 @@
         <v>2.58</v>
       </c>
       <c r="AO2" t="s">
+        <v>418</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>418</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>419</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>419</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>420</v>
       </c>
       <c r="AR2">
         <v>55.5</v>
@@ -66970,13 +66973,13 @@
         <v>3.7</v>
       </c>
       <c r="AO3" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP3" t="s">
         <v>421</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>422</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>423</v>
       </c>
       <c r="AR3">
         <v>38.4</v>
@@ -67098,13 +67101,13 @@
         <v>3.15</v>
       </c>
       <c r="AO4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR4">
         <v>33.1</v>
@@ -67193,13 +67196,13 @@
         <v>0.43</v>
       </c>
       <c r="AO5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AT5">
         <v>4.5999999999999996</v>
@@ -67315,13 +67318,13 @@
         <v>3.41</v>
       </c>
       <c r="AO6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR6">
         <v>25.5</v>
@@ -67443,13 +67446,13 @@
         <v>3.41</v>
       </c>
       <c r="AO7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR7">
         <v>38.700000000000003</v>
@@ -67571,13 +67574,13 @@
         <v>6.3</v>
       </c>
       <c r="AO8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR8">
         <v>43.7</v>
@@ -67699,13 +67702,13 @@
         <v>4.29</v>
       </c>
       <c r="AO9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR9">
         <v>27.8</v>
@@ -67827,13 +67830,13 @@
         <v>3.35</v>
       </c>
       <c r="AO10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP10" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>422</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>423</v>
       </c>
       <c r="AR10">
         <v>32.700000000000003</v>
@@ -67916,13 +67919,13 @@
         <v>0.54</v>
       </c>
       <c r="AO11" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP11" t="s">
         <v>421</v>
       </c>
-      <c r="AP11" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AT11">
         <v>2.8</v>
@@ -68038,13 +68041,13 @@
         <v>3.34</v>
       </c>
       <c r="AO12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR12">
         <v>50.4</v>
@@ -68166,13 +68169,13 @@
         <v>3.23</v>
       </c>
       <c r="AO13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR13">
         <v>51</v>
@@ -68243,13 +68246,13 @@
         <v>0.7</v>
       </c>
       <c r="AO14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AT14">
         <v>0</v>
@@ -68365,13 +68368,13 @@
         <v>4.55</v>
       </c>
       <c r="AO15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR15">
         <v>35.799999999999997</v>
@@ -68493,13 +68496,13 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="AO16" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP16" t="s">
         <v>421</v>
       </c>
-      <c r="AP16" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR16">
         <v>52.9</v>
@@ -68621,13 +68624,13 @@
         <v>1.34</v>
       </c>
       <c r="AO17" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP17" t="s">
         <v>421</v>
       </c>
-      <c r="AP17" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR17">
         <v>70.400000000000006</v>
@@ -68749,13 +68752,13 @@
         <v>2.96</v>
       </c>
       <c r="AO18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR18">
         <v>52.2</v>
@@ -68877,13 +68880,13 @@
         <v>3.3</v>
       </c>
       <c r="AO19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR19">
         <v>40.299999999999997</v>
@@ -68996,13 +68999,13 @@
         <v>2.83</v>
       </c>
       <c r="AO20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR20">
         <v>52.2</v>
@@ -69118,13 +69121,13 @@
         <v>1.6</v>
       </c>
       <c r="AO21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR21">
         <v>44.2</v>
@@ -69213,13 +69216,13 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AO22" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP22" t="s">
         <v>421</v>
       </c>
-      <c r="AP22" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AT22">
         <v>0</v>
@@ -69335,13 +69338,13 @@
         <v>2.16</v>
       </c>
       <c r="AO23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AR23">
         <v>49.6</v>
@@ -69463,13 +69466,13 @@
         <v>3.01</v>
       </c>
       <c r="AO24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR24">
         <v>36.700000000000003</v>
@@ -69591,13 +69594,13 @@
         <v>3.17</v>
       </c>
       <c r="AO25" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP25" t="s">
         <v>421</v>
       </c>
-      <c r="AP25" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR25">
         <v>49.4</v>
@@ -69719,13 +69722,13 @@
         <v>3.28</v>
       </c>
       <c r="AO26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR26">
         <v>42</v>
@@ -69847,13 +69850,13 @@
         <v>2.56</v>
       </c>
       <c r="AO27" t="s">
+        <v>418</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ27" t="s">
         <v>419</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>422</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>420</v>
       </c>
       <c r="AR27">
         <v>40</v>
@@ -69975,13 +69978,13 @@
         <v>2.09</v>
       </c>
       <c r="AO28" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP28" t="s">
         <v>421</v>
       </c>
-      <c r="AP28" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AR28">
         <v>53.8</v>
@@ -70115,13 +70118,13 @@
         <v>2.34</v>
       </c>
       <c r="AO29" t="s">
+        <v>418</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ29" t="s">
         <v>419</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>422</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>420</v>
       </c>
       <c r="AR29">
         <v>44.1</v>
@@ -70243,13 +70246,13 @@
         <v>2.99</v>
       </c>
       <c r="AO30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR30">
         <v>68.599999999999994</v>
@@ -70371,13 +70374,13 @@
         <v>2.6</v>
       </c>
       <c r="AO31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR31">
         <v>28.5</v>
@@ -70499,13 +70502,13 @@
         <v>3.38</v>
       </c>
       <c r="AO32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR32">
         <v>47.3</v>
@@ -70627,13 +70630,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AO33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AR33">
         <v>55.5</v>
@@ -70755,13 +70758,13 @@
         <v>3.19</v>
       </c>
       <c r="AO34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR34">
         <v>31.8</v>
@@ -70883,13 +70886,13 @@
         <v>1.85</v>
       </c>
       <c r="AO35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AR35">
         <v>58.3</v>
@@ -71011,13 +71014,13 @@
         <v>2.64</v>
       </c>
       <c r="AO36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR36">
         <v>61.4</v>
@@ -71139,13 +71142,13 @@
         <v>2.77</v>
       </c>
       <c r="AO37" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP37" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR37">
         <v>55.3</v>
@@ -71231,13 +71234,13 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="AO38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AT38">
         <v>8.9</v>
@@ -71353,13 +71356,13 @@
         <v>1.22</v>
       </c>
       <c r="AO39" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ39" t="s">
         <v>425</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>422</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>426</v>
       </c>
       <c r="AR39">
         <v>64.2</v>
@@ -71481,13 +71484,13 @@
         <v>2.37</v>
       </c>
       <c r="AO40" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP40" t="s">
         <v>421</v>
       </c>
-      <c r="AP40" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR40">
         <v>30.1</v>
@@ -71588,13 +71591,13 @@
         <v>3.55</v>
       </c>
       <c r="AO41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR41">
         <v>53.8</v>
@@ -71716,13 +71719,13 @@
         <v>1.52</v>
       </c>
       <c r="AO42" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP42" t="s">
         <v>421</v>
       </c>
-      <c r="AP42" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR42">
         <v>60.3</v>
@@ -71844,13 +71847,13 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="AO43" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR43">
         <v>25.7</v>
@@ -71972,13 +71975,13 @@
         <v>1.74</v>
       </c>
       <c r="AO44" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP44" t="s">
         <v>421</v>
       </c>
-      <c r="AP44" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR44">
         <v>54.9</v>
@@ -72100,13 +72103,13 @@
         <v>1.99</v>
       </c>
       <c r="AO45" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP45" t="s">
         <v>421</v>
       </c>
-      <c r="AP45" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AR45">
         <v>56.8</v>
@@ -72207,13 +72210,13 @@
         <v>2.25</v>
       </c>
       <c r="AO46" t="s">
+        <v>418</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ46" t="s">
         <v>419</v>
-      </c>
-      <c r="AP46" t="s">
-        <v>422</v>
-      </c>
-      <c r="AQ46" t="s">
-        <v>420</v>
       </c>
       <c r="AR46">
         <v>44.7</v>
@@ -72335,13 +72338,13 @@
         <v>3.04</v>
       </c>
       <c r="AO47" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP47" t="s">
         <v>421</v>
       </c>
-      <c r="AP47" t="s">
+      <c r="AQ47" t="s">
         <v>422</v>
-      </c>
-      <c r="AQ47" t="s">
-        <v>423</v>
       </c>
       <c r="AR47">
         <v>46.9</v>
@@ -72463,13 +72466,13 @@
         <v>2.8</v>
       </c>
       <c r="AO48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR48">
         <v>40</v>
@@ -72591,13 +72594,13 @@
         <v>1.9</v>
       </c>
       <c r="AO49" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP49" t="s">
         <v>421</v>
       </c>
-      <c r="AP49" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ49" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AR49">
         <v>50.1</v>
@@ -72719,13 +72722,13 @@
         <v>2.06</v>
       </c>
       <c r="AO50" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP50" t="s">
         <v>421</v>
       </c>
-      <c r="AP50" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ50" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AR50">
         <v>51.5</v>
@@ -72847,13 +72850,13 @@
         <v>3.06</v>
       </c>
       <c r="AO51" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP51" t="s">
         <v>421</v>
       </c>
-      <c r="AP51" t="s">
+      <c r="AQ51" t="s">
         <v>422</v>
-      </c>
-      <c r="AQ51" t="s">
-        <v>423</v>
       </c>
       <c r="AR51">
         <v>36.700000000000003</v>
@@ -72975,13 +72978,13 @@
         <v>2.82</v>
       </c>
       <c r="AO52" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP52" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR52">
         <v>62.1</v>
@@ -73103,13 +73106,13 @@
         <v>1.45</v>
       </c>
       <c r="AO53" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP53" t="s">
         <v>421</v>
       </c>
-      <c r="AP53" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR53">
         <v>58.5</v>
@@ -73231,13 +73234,13 @@
         <v>2.71</v>
       </c>
       <c r="AO54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR54">
         <v>30.4</v>
@@ -73359,13 +73362,13 @@
         <v>3.47</v>
       </c>
       <c r="AO55" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP55" t="s">
         <v>421</v>
       </c>
-      <c r="AP55" t="s">
+      <c r="AQ55" t="s">
         <v>422</v>
-      </c>
-      <c r="AQ55" t="s">
-        <v>423</v>
       </c>
       <c r="AR55">
         <v>47.7</v>
@@ -73487,13 +73490,13 @@
         <v>1.87</v>
       </c>
       <c r="AO56" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP56" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ56" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AR56">
         <v>60.8</v>
@@ -73615,13 +73618,13 @@
         <v>2.38</v>
       </c>
       <c r="AO57" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP57" t="s">
         <v>421</v>
       </c>
-      <c r="AP57" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ57" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR57">
         <v>51.5</v>
@@ -73743,13 +73746,13 @@
         <v>2.38</v>
       </c>
       <c r="AO58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP58" t="s">
+        <v>418</v>
+      </c>
+      <c r="AQ58" t="s">
         <v>419</v>
-      </c>
-      <c r="AQ58" t="s">
-        <v>420</v>
       </c>
       <c r="AR58">
         <v>31.4</v>
@@ -73871,13 +73874,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AO59" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP59" t="s">
         <v>421</v>
       </c>
-      <c r="AP59" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ59" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR59">
         <v>37.9</v>
@@ -73999,13 +74002,13 @@
         <v>2.89</v>
       </c>
       <c r="AO60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ60" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR60">
         <v>20.8</v>
@@ -74127,13 +74130,13 @@
         <v>2.69</v>
       </c>
       <c r="AO61" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP61" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ61" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR61">
         <v>41.4</v>
@@ -74255,13 +74258,13 @@
         <v>2.38</v>
       </c>
       <c r="AO62" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP62" t="s">
         <v>421</v>
       </c>
-      <c r="AP62" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR62">
         <v>48.3</v>
@@ -74383,13 +74386,13 @@
         <v>2.95</v>
       </c>
       <c r="AO63" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP63" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ63" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR63">
         <v>75.599999999999994</v>
@@ -74511,13 +74514,13 @@
         <v>3.15</v>
       </c>
       <c r="AO64" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP64" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR64">
         <v>46.9</v>
@@ -74651,13 +74654,13 @@
         <v>3.27</v>
       </c>
       <c r="AO65" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP65" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ65" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR65">
         <v>77.099999999999994</v>
@@ -74779,13 +74782,13 @@
         <v>3.2</v>
       </c>
       <c r="AO66" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP66" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR66">
         <v>44.6</v>
@@ -74907,13 +74910,13 @@
         <v>1.26</v>
       </c>
       <c r="AO67" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP67" t="s">
         <v>421</v>
       </c>
-      <c r="AP67" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ67" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR67">
         <v>68</v>
@@ -75035,13 +75038,13 @@
         <v>1.83</v>
       </c>
       <c r="AO68" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP68" t="s">
         <v>421</v>
       </c>
-      <c r="AP68" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ68" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AR68">
         <v>49.7</v>
@@ -75163,13 +75166,13 @@
         <v>3.14</v>
       </c>
       <c r="AO69" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR69">
         <v>42.5</v>
@@ -75291,13 +75294,13 @@
         <v>3.65</v>
       </c>
       <c r="AO70" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP70" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR70">
         <v>52</v>
@@ -75320,7 +75323,7 @@
         <v>288</v>
       </c>
       <c r="F71" t="s">
-        <v>289</v>
+        <v>447</v>
       </c>
       <c r="I71">
         <v>1.24</v>
@@ -75359,7 +75362,7 @@
         <v>1.62</v>
       </c>
       <c r="U71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V71">
         <v>0.6</v>
@@ -75416,13 +75419,13 @@
         <v>2.63</v>
       </c>
       <c r="AO71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP71" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ71" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR71">
         <v>28.7</v>
@@ -75436,16 +75439,16 @@
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B72" s="2">
         <v>46077.729166666657</v>
       </c>
       <c r="C72" t="s">
+        <v>292</v>
+      </c>
+      <c r="F72" t="s">
         <v>293</v>
-      </c>
-      <c r="F72" t="s">
-        <v>294</v>
       </c>
       <c r="I72">
         <v>1.83</v>
@@ -75544,13 +75547,13 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="AO72" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR72">
         <v>49.8</v>
@@ -75564,16 +75567,16 @@
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B73" s="2">
         <v>46077.75</v>
       </c>
       <c r="C73" t="s">
+        <v>295</v>
+      </c>
+      <c r="F73" t="s">
         <v>296</v>
-      </c>
-      <c r="F73" t="s">
-        <v>297</v>
       </c>
       <c r="I73">
         <v>1.49</v>
@@ -75606,7 +75609,7 @@
         <v>14.42</v>
       </c>
       <c r="S73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T73">
         <v>4.25</v>
@@ -75639,13 +75642,13 @@
         <v>0.62</v>
       </c>
       <c r="AO73" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP73" t="s">
         <v>421</v>
       </c>
-      <c r="AP73" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ73" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AT73">
         <v>20.2</v>
@@ -75653,16 +75656,16 @@
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B74" s="2">
         <v>46077.791666666657</v>
       </c>
       <c r="C74" t="s">
+        <v>298</v>
+      </c>
+      <c r="F74" t="s">
         <v>299</v>
-      </c>
-      <c r="F74" t="s">
-        <v>300</v>
       </c>
       <c r="I74">
         <v>1.68</v>
@@ -75761,13 +75764,13 @@
         <v>2.71</v>
       </c>
       <c r="AO74" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP74" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ74" t="s">
         <v>422</v>
-      </c>
-      <c r="AQ74" t="s">
-        <v>423</v>
       </c>
       <c r="AR74">
         <v>42.6</v>
@@ -75787,10 +75790,10 @@
         <v>46077.791666666657</v>
       </c>
       <c r="C75" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" t="s">
         <v>301</v>
-      </c>
-      <c r="F75" t="s">
-        <v>302</v>
       </c>
       <c r="I75">
         <v>3.24</v>
@@ -75889,13 +75892,13 @@
         <v>1.89</v>
       </c>
       <c r="AO75" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP75" t="s">
         <v>421</v>
       </c>
-      <c r="AP75" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ75" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AR75">
         <v>45.3</v>
@@ -75915,10 +75918,10 @@
         <v>46077.802083333343</v>
       </c>
       <c r="C76" t="s">
+        <v>302</v>
+      </c>
+      <c r="F76" t="s">
         <v>303</v>
-      </c>
-      <c r="F76" t="s">
-        <v>304</v>
       </c>
       <c r="I76">
         <v>2.27</v>
@@ -76017,13 +76020,13 @@
         <v>1.61</v>
       </c>
       <c r="AO76" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP76" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ76" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR76">
         <v>64.3</v>
@@ -76043,10 +76046,10 @@
         <v>46077.822916666657</v>
       </c>
       <c r="C77" t="s">
+        <v>304</v>
+      </c>
+      <c r="F77" t="s">
         <v>305</v>
-      </c>
-      <c r="F77" t="s">
-        <v>306</v>
       </c>
       <c r="I77">
         <v>3.28</v>
@@ -76145,13 +76148,13 @@
         <v>2.02</v>
       </c>
       <c r="AO77" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP77" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ77" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AR77">
         <v>54.7</v>
@@ -76165,16 +76168,16 @@
     </row>
     <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B78" s="2">
         <v>46077.875</v>
       </c>
       <c r="C78" t="s">
+        <v>307</v>
+      </c>
+      <c r="F78" t="s">
         <v>308</v>
-      </c>
-      <c r="F78" t="s">
-        <v>309</v>
       </c>
       <c r="P78">
         <v>7.0000000000000062E-2</v>
@@ -76252,13 +76255,13 @@
         <v>3.05</v>
       </c>
       <c r="AO78" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP78" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ78" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR78">
         <v>49.1</v>
@@ -76272,16 +76275,16 @@
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B79" s="2">
         <v>46077.875</v>
       </c>
       <c r="C79" t="s">
+        <v>309</v>
+      </c>
+      <c r="F79" t="s">
         <v>310</v>
-      </c>
-      <c r="F79" t="s">
-        <v>311</v>
       </c>
       <c r="P79">
         <v>-0.12000000000000011</v>
@@ -76359,13 +76362,13 @@
         <v>2.9</v>
       </c>
       <c r="AO79" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP79" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ79" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR79">
         <v>57.2</v>
@@ -76379,16 +76382,16 @@
     </row>
     <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B80" s="2">
         <v>46077.875</v>
       </c>
       <c r="C80" t="s">
+        <v>311</v>
+      </c>
+      <c r="F80" t="s">
         <v>312</v>
-      </c>
-      <c r="F80" t="s">
-        <v>313</v>
       </c>
       <c r="R80">
         <v>-1.25</v>
@@ -76460,13 +76463,13 @@
         <v>2.4</v>
       </c>
       <c r="AO80" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP80" t="s">
         <v>421</v>
       </c>
-      <c r="AP80" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ80" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR80">
         <v>30.3</v>
@@ -76480,16 +76483,16 @@
     </row>
     <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B81" s="2">
         <v>46077.875</v>
       </c>
       <c r="C81" t="s">
+        <v>313</v>
+      </c>
+      <c r="F81" t="s">
         <v>314</v>
-      </c>
-      <c r="F81" t="s">
-        <v>315</v>
       </c>
       <c r="P81">
         <v>-1.0000000000000011E-2</v>
@@ -76567,13 +76570,13 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="AO81" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP81" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ81" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AR81">
         <v>55</v>
@@ -76587,16 +76590,16 @@
     </row>
     <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B82" s="2">
         <v>46077.875</v>
       </c>
       <c r="C82" t="s">
+        <v>315</v>
+      </c>
+      <c r="F82" t="s">
         <v>316</v>
-      </c>
-      <c r="F82" t="s">
-        <v>317</v>
       </c>
       <c r="P82">
         <v>-0.24</v>
@@ -76674,13 +76677,13 @@
         <v>2.35</v>
       </c>
       <c r="AO82" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP82" t="s">
+        <v>418</v>
+      </c>
+      <c r="AQ82" t="s">
         <v>419</v>
-      </c>
-      <c r="AQ82" t="s">
-        <v>420</v>
       </c>
       <c r="AR82">
         <v>57.5</v>
@@ -76694,16 +76697,16 @@
     </row>
     <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B83" s="2">
         <v>46077.875</v>
       </c>
       <c r="C83" t="s">
+        <v>317</v>
+      </c>
+      <c r="F83" t="s">
         <v>318</v>
-      </c>
-      <c r="F83" t="s">
-        <v>319</v>
       </c>
       <c r="P83">
         <v>6.0000000000000053E-2</v>
@@ -76781,13 +76784,13 @@
         <v>2.95</v>
       </c>
       <c r="AO83" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP83" t="s">
         <v>421</v>
       </c>
-      <c r="AP83" t="s">
+      <c r="AQ83" t="s">
         <v>422</v>
-      </c>
-      <c r="AQ83" t="s">
-        <v>423</v>
       </c>
       <c r="AR83">
         <v>29</v>
@@ -76801,16 +76804,16 @@
     </row>
     <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B84" s="2">
         <v>46077.875</v>
       </c>
       <c r="C84" t="s">
+        <v>319</v>
+      </c>
+      <c r="F84" t="s">
         <v>320</v>
-      </c>
-      <c r="F84" t="s">
-        <v>321</v>
       </c>
       <c r="P84">
         <v>-0.21000000000000019</v>
@@ -76855,13 +76858,13 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="AO84" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP84" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ84" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AT84">
         <v>4.5999999999999996</v>
@@ -76875,10 +76878,10 @@
         <v>46077.875</v>
       </c>
       <c r="C85" t="s">
+        <v>321</v>
+      </c>
+      <c r="F85" t="s">
         <v>322</v>
-      </c>
-      <c r="F85" t="s">
-        <v>323</v>
       </c>
       <c r="I85">
         <v>5.01</v>
@@ -76977,13 +76980,13 @@
         <v>2.86</v>
       </c>
       <c r="AO85" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP85" t="s">
         <v>421</v>
       </c>
-      <c r="AP85" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ85" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR85">
         <v>62.1</v>
@@ -76997,16 +77000,16 @@
     </row>
     <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B86" s="2">
         <v>46077.875</v>
       </c>
       <c r="C86" t="s">
+        <v>324</v>
+      </c>
+      <c r="F86" t="s">
         <v>325</v>
-      </c>
-      <c r="F86" t="s">
-        <v>326</v>
       </c>
       <c r="I86">
         <v>1.42</v>
@@ -77105,13 +77108,13 @@
         <v>2.69</v>
       </c>
       <c r="AO86" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP86" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AQ86" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR86">
         <v>48.8</v>
@@ -77125,16 +77128,16 @@
     </row>
     <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B87" s="2">
         <v>46077.875</v>
       </c>
       <c r="C87" t="s">
+        <v>327</v>
+      </c>
+      <c r="F87" t="s">
         <v>328</v>
-      </c>
-      <c r="F87" t="s">
-        <v>329</v>
       </c>
       <c r="I87">
         <v>1.59</v>
@@ -77200,13 +77203,13 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="AO87" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AT87">
         <v>17.2</v>
@@ -77214,16 +77217,16 @@
     </row>
     <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B88" s="2">
         <v>46077.875</v>
       </c>
       <c r="C88" t="s">
+        <v>329</v>
+      </c>
+      <c r="F88" t="s">
         <v>330</v>
-      </c>
-      <c r="F88" t="s">
-        <v>331</v>
       </c>
       <c r="I88">
         <v>1.56</v>
@@ -77322,13 +77325,13 @@
         <v>1.44</v>
       </c>
       <c r="AO88" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP88" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ88" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR88">
         <v>49.8</v>
@@ -77342,16 +77345,16 @@
     </row>
     <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B89" s="2">
         <v>46077.895833333343</v>
       </c>
       <c r="C89" t="s">
+        <v>332</v>
+      </c>
+      <c r="F89" t="s">
         <v>333</v>
-      </c>
-      <c r="F89" t="s">
-        <v>334</v>
       </c>
       <c r="I89">
         <v>1.41</v>
@@ -77450,13 +77453,13 @@
         <v>1.74</v>
       </c>
       <c r="AO89" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP89" t="s">
         <v>421</v>
       </c>
-      <c r="AP89" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ89" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR89">
         <v>43.4</v>
@@ -77476,10 +77479,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C90" t="s">
+        <v>334</v>
+      </c>
+      <c r="F90" t="s">
         <v>335</v>
-      </c>
-      <c r="F90" t="s">
-        <v>336</v>
       </c>
       <c r="I90">
         <v>1.1399999999999999</v>
@@ -77575,13 +77578,13 @@
         <v>2.31</v>
       </c>
       <c r="AO90" t="s">
+        <v>418</v>
+      </c>
+      <c r="AP90" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ90" t="s">
         <v>419</v>
-      </c>
-      <c r="AP90" t="s">
-        <v>422</v>
-      </c>
-      <c r="AQ90" t="s">
-        <v>420</v>
       </c>
       <c r="AR90">
         <v>60.3</v>
@@ -77601,10 +77604,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C91" t="s">
+        <v>336</v>
+      </c>
+      <c r="F91" t="s">
         <v>337</v>
-      </c>
-      <c r="F91" t="s">
-        <v>338</v>
       </c>
       <c r="I91">
         <v>1.26</v>
@@ -77667,13 +77670,13 @@
         <v>0.52</v>
       </c>
       <c r="AO91" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP91" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ91" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AT91">
         <v>8.6</v>
@@ -77687,10 +77690,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C92" t="s">
+        <v>338</v>
+      </c>
+      <c r="F92" t="s">
         <v>339</v>
-      </c>
-      <c r="F92" t="s">
-        <v>340</v>
       </c>
       <c r="I92">
         <v>1.79</v>
@@ -77789,13 +77792,13 @@
         <v>1.79</v>
       </c>
       <c r="AO92" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AP92" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ92" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR92">
         <v>57.5</v>
@@ -77809,16 +77812,16 @@
     </row>
     <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B93" s="2">
         <v>46077.895833333343</v>
       </c>
       <c r="C93" t="s">
+        <v>340</v>
+      </c>
+      <c r="F93" t="s">
         <v>341</v>
-      </c>
-      <c r="F93" t="s">
-        <v>342</v>
       </c>
       <c r="I93">
         <v>1.51</v>
@@ -77917,13 +77920,13 @@
         <v>2.75</v>
       </c>
       <c r="AO93" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP93" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ93" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR93">
         <v>39.299999999999997</v>
@@ -77937,16 +77940,16 @@
     </row>
     <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B94" s="2">
         <v>46077.916666666657</v>
       </c>
       <c r="C94" t="s">
+        <v>344</v>
+      </c>
+      <c r="F94" t="s">
         <v>345</v>
-      </c>
-      <c r="F94" t="s">
-        <v>346</v>
       </c>
       <c r="I94">
         <v>1.1399999999999999</v>
@@ -78045,13 +78048,13 @@
         <v>6.64</v>
       </c>
       <c r="AO94" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP94" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AQ94" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR94">
         <v>33.1</v>
@@ -78071,10 +78074,10 @@
         <v>46077.916666666657</v>
       </c>
       <c r="C95" t="s">
+        <v>347</v>
+      </c>
+      <c r="F95" t="s">
         <v>348</v>
-      </c>
-      <c r="F95" t="s">
-        <v>349</v>
       </c>
       <c r="I95">
         <v>3.52</v>
@@ -78173,13 +78176,13 @@
         <v>1.49</v>
       </c>
       <c r="AO95" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP95" t="s">
         <v>421</v>
       </c>
-      <c r="AP95" t="s">
-        <v>422</v>
-      </c>
       <c r="AQ95" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR95">
         <v>68.400000000000006</v>
@@ -78200,7 +78203,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BC95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -78317,58 +78322,58 @@
         <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
@@ -78523,7 +78528,7 @@
         <v>18.510000000000002</v>
       </c>
       <c r="BC2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -79074,7 +79079,7 @@
         <v>37.369999999999997</v>
       </c>
       <c r="BC6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
@@ -79798,7 +79803,7 @@
         <v>13</v>
       </c>
       <c r="BC11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
@@ -80197,7 +80202,7 @@
         <v>31.54</v>
       </c>
       <c r="BC14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
@@ -80805,7 +80810,7 @@
         <v>33.29</v>
       </c>
       <c r="BC18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
@@ -80960,7 +80965,7 @@
         <v>33.549999999999997</v>
       </c>
       <c r="BC19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.25">
@@ -81094,7 +81099,7 @@
         <v>27.82</v>
       </c>
       <c r="BC20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.25">
@@ -81240,7 +81245,7 @@
         <v>15.19</v>
       </c>
       <c r="BC21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.25">
@@ -81660,7 +81665,7 @@
         <v>18.78</v>
       </c>
       <c r="BC24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.25">
@@ -82268,7 +82273,7 @@
         <v>24.41</v>
       </c>
       <c r="BC28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.25">
@@ -82885,7 +82890,7 @@
         <v>38.6</v>
       </c>
       <c r="BC32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:55" x14ac:dyDescent="0.25">
@@ -83338,7 +83343,7 @@
         <v>22.79</v>
       </c>
       <c r="BC35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:55" x14ac:dyDescent="0.25">
@@ -83490,7 +83495,7 @@
         <v>21.77</v>
       </c>
       <c r="BC36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:55" x14ac:dyDescent="0.25">
@@ -83904,7 +83909,7 @@
         <v>21.07</v>
       </c>
       <c r="BC39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:55" x14ac:dyDescent="0.25">
@@ -84327,7 +84332,7 @@
         <v>17.93</v>
       </c>
       <c r="BC42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:55" x14ac:dyDescent="0.25">
@@ -84482,7 +84487,7 @@
         <v>36.56</v>
       </c>
       <c r="BC43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:55" x14ac:dyDescent="0.25">
@@ -84783,7 +84788,7 @@
         <v>14.9</v>
       </c>
       <c r="BC45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:55" x14ac:dyDescent="0.25">
@@ -85960,7 +85965,7 @@
         <v>16.88</v>
       </c>
       <c r="BC53" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:55" x14ac:dyDescent="0.25">
@@ -86416,7 +86421,7 @@
         <v>35.76</v>
       </c>
       <c r="BC56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="1:55" x14ac:dyDescent="0.25">
@@ -86720,7 +86725,7 @@
         <v>28.14</v>
       </c>
       <c r="BC58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="1:55" x14ac:dyDescent="0.25">
@@ -87024,7 +87029,7 @@
         <v>38.54</v>
       </c>
       <c r="BC60" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:55" x14ac:dyDescent="0.25">
@@ -87483,7 +87488,7 @@
         <v>29.29</v>
       </c>
       <c r="BC63" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:55" x14ac:dyDescent="0.25">
@@ -87638,7 +87643,7 @@
         <v>36.869999999999997</v>
       </c>
       <c r="BC64" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="1:55" x14ac:dyDescent="0.25">
@@ -88106,7 +88111,7 @@
         <v>17.239999999999998</v>
       </c>
       <c r="BC67" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:55" x14ac:dyDescent="0.25">
@@ -88413,7 +88418,7 @@
         <v>34.03</v>
       </c>
       <c r="BC69" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="70" spans="1:55" x14ac:dyDescent="0.25">
@@ -88568,7 +88573,7 @@
         <v>35.75</v>
       </c>
       <c r="BC70" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:55" x14ac:dyDescent="0.25">
@@ -88582,7 +88587,7 @@
         <v>288</v>
       </c>
       <c r="F71" t="s">
-        <v>289</v>
+        <v>447</v>
       </c>
       <c r="I71">
         <v>1.24</v>
@@ -88621,7 +88626,7 @@
         <v>1.62</v>
       </c>
       <c r="U71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V71">
         <v>0.6</v>
@@ -88717,21 +88722,21 @@
         <v>34.450000000000003</v>
       </c>
       <c r="BC71" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B72" s="2">
         <v>46077.729166666657</v>
       </c>
       <c r="C72" t="s">
+        <v>292</v>
+      </c>
+      <c r="F72" t="s">
         <v>293</v>
-      </c>
-      <c r="F72" t="s">
-        <v>294</v>
       </c>
       <c r="I72">
         <v>1.83</v>
@@ -88874,16 +88879,16 @@
     </row>
     <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B73" s="2">
         <v>46077.75</v>
       </c>
       <c r="C73" t="s">
+        <v>295</v>
+      </c>
+      <c r="F73" t="s">
         <v>296</v>
-      </c>
-      <c r="F73" t="s">
-        <v>297</v>
       </c>
       <c r="I73">
         <v>1.49</v>
@@ -88916,7 +88921,7 @@
         <v>14.42</v>
       </c>
       <c r="S73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T73">
         <v>4.25</v>
@@ -88994,21 +88999,21 @@
         <v>12.83</v>
       </c>
       <c r="BC73" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B74" s="2">
         <v>46077.791666666657</v>
       </c>
       <c r="C74" t="s">
+        <v>298</v>
+      </c>
+      <c r="F74" t="s">
         <v>299</v>
-      </c>
-      <c r="F74" t="s">
-        <v>300</v>
       </c>
       <c r="I74">
         <v>1.68</v>
@@ -89157,10 +89162,10 @@
         <v>46077.791666666657</v>
       </c>
       <c r="C75" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" t="s">
         <v>301</v>
-      </c>
-      <c r="F75" t="s">
-        <v>302</v>
       </c>
       <c r="I75">
         <v>3.24</v>
@@ -89306,10 +89311,10 @@
         <v>46077.802083333343</v>
       </c>
       <c r="C76" t="s">
+        <v>302</v>
+      </c>
+      <c r="F76" t="s">
         <v>303</v>
-      </c>
-      <c r="F76" t="s">
-        <v>304</v>
       </c>
       <c r="I76">
         <v>2.27</v>
@@ -89455,10 +89460,10 @@
         <v>46077.822916666657</v>
       </c>
       <c r="C77" t="s">
+        <v>304</v>
+      </c>
+      <c r="F77" t="s">
         <v>305</v>
-      </c>
-      <c r="F77" t="s">
-        <v>306</v>
       </c>
       <c r="I77">
         <v>3.28</v>
@@ -89598,16 +89603,16 @@
     </row>
     <row r="78" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B78" s="2">
         <v>46077.875</v>
       </c>
       <c r="C78" t="s">
+        <v>307</v>
+      </c>
+      <c r="F78" t="s">
         <v>308</v>
-      </c>
-      <c r="F78" t="s">
-        <v>309</v>
       </c>
       <c r="P78">
         <v>7.0000000000000062E-2</v>
@@ -89714,16 +89719,16 @@
     </row>
     <row r="79" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B79" s="2">
         <v>46077.875</v>
       </c>
       <c r="C79" t="s">
+        <v>309</v>
+      </c>
+      <c r="F79" t="s">
         <v>310</v>
-      </c>
-      <c r="F79" t="s">
-        <v>311</v>
       </c>
       <c r="P79">
         <v>-0.12000000000000011</v>
@@ -89824,16 +89829,16 @@
     </row>
     <row r="80" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B80" s="2">
         <v>46077.875</v>
       </c>
       <c r="C80" t="s">
+        <v>311</v>
+      </c>
+      <c r="F80" t="s">
         <v>312</v>
-      </c>
-      <c r="F80" t="s">
-        <v>313</v>
       </c>
       <c r="R80">
         <v>-1.25</v>
@@ -89929,21 +89934,21 @@
         <v>26.01</v>
       </c>
       <c r="BC80" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B81" s="2">
         <v>46077.875</v>
       </c>
       <c r="C81" t="s">
+        <v>313</v>
+      </c>
+      <c r="F81" t="s">
         <v>314</v>
-      </c>
-      <c r="F81" t="s">
-        <v>315</v>
       </c>
       <c r="P81">
         <v>-1.0000000000000011E-2</v>
@@ -90045,21 +90050,21 @@
         <v>15</v>
       </c>
       <c r="BC81" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B82" s="2">
         <v>46077.875</v>
       </c>
       <c r="C82" t="s">
+        <v>315</v>
+      </c>
+      <c r="F82" t="s">
         <v>316</v>
-      </c>
-      <c r="F82" t="s">
-        <v>317</v>
       </c>
       <c r="P82">
         <v>-0.24</v>
@@ -90166,16 +90171,16 @@
     </row>
     <row r="83" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B83" s="2">
         <v>46077.875</v>
       </c>
       <c r="C83" t="s">
+        <v>317</v>
+      </c>
+      <c r="F83" t="s">
         <v>318</v>
-      </c>
-      <c r="F83" t="s">
-        <v>319</v>
       </c>
       <c r="P83">
         <v>6.0000000000000053E-2</v>
@@ -90282,16 +90287,16 @@
     </row>
     <row r="84" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B84" s="2">
         <v>46077.875</v>
       </c>
       <c r="C84" t="s">
+        <v>319</v>
+      </c>
+      <c r="F84" t="s">
         <v>320</v>
-      </c>
-      <c r="F84" t="s">
-        <v>321</v>
       </c>
       <c r="P84">
         <v>-0.21000000000000019</v>
@@ -90374,10 +90379,10 @@
         <v>46077.875</v>
       </c>
       <c r="C85" t="s">
+        <v>321</v>
+      </c>
+      <c r="F85" t="s">
         <v>322</v>
-      </c>
-      <c r="F85" t="s">
-        <v>323</v>
       </c>
       <c r="I85">
         <v>5.01</v>
@@ -90517,16 +90522,16 @@
     </row>
     <row r="86" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B86" s="2">
         <v>46077.875</v>
       </c>
       <c r="C86" t="s">
+        <v>324</v>
+      </c>
+      <c r="F86" t="s">
         <v>325</v>
-      </c>
-      <c r="F86" t="s">
-        <v>326</v>
       </c>
       <c r="I86">
         <v>1.42</v>
@@ -90667,21 +90672,21 @@
         <v>29.67</v>
       </c>
       <c r="BC86" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B87" s="2">
         <v>46077.875</v>
       </c>
       <c r="C87" t="s">
+        <v>327</v>
+      </c>
+      <c r="F87" t="s">
         <v>328</v>
-      </c>
-      <c r="F87" t="s">
-        <v>329</v>
       </c>
       <c r="I87">
         <v>1.59</v>
@@ -90792,21 +90797,21 @@
         <v>26.49</v>
       </c>
       <c r="BC87" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B88" s="2">
         <v>46077.875</v>
       </c>
       <c r="C88" t="s">
+        <v>329</v>
+      </c>
+      <c r="F88" t="s">
         <v>330</v>
-      </c>
-      <c r="F88" t="s">
-        <v>331</v>
       </c>
       <c r="I88">
         <v>1.56</v>
@@ -90946,16 +90951,16 @@
     </row>
     <row r="89" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B89" s="2">
         <v>46077.895833333343</v>
       </c>
       <c r="C89" t="s">
+        <v>332</v>
+      </c>
+      <c r="F89" t="s">
         <v>333</v>
-      </c>
-      <c r="F89" t="s">
-        <v>334</v>
       </c>
       <c r="I89">
         <v>1.41</v>
@@ -91101,10 +91106,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C90" t="s">
+        <v>334</v>
+      </c>
+      <c r="F90" t="s">
         <v>335</v>
-      </c>
-      <c r="F90" t="s">
-        <v>336</v>
       </c>
       <c r="I90">
         <v>1.1399999999999999</v>
@@ -91250,10 +91255,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C91" t="s">
+        <v>336</v>
+      </c>
+      <c r="F91" t="s">
         <v>337</v>
-      </c>
-      <c r="F91" t="s">
-        <v>338</v>
       </c>
       <c r="I91">
         <v>1.26</v>
@@ -91363,10 +91368,10 @@
         <v>46077.895833333343</v>
       </c>
       <c r="C92" t="s">
+        <v>338</v>
+      </c>
+      <c r="F92" t="s">
         <v>339</v>
-      </c>
-      <c r="F92" t="s">
-        <v>340</v>
       </c>
       <c r="I92">
         <v>1.79</v>
@@ -91506,16 +91511,16 @@
     </row>
     <row r="93" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B93" s="2">
         <v>46077.895833333343</v>
       </c>
       <c r="C93" t="s">
+        <v>340</v>
+      </c>
+      <c r="F93" t="s">
         <v>341</v>
-      </c>
-      <c r="F93" t="s">
-        <v>342</v>
       </c>
       <c r="I93">
         <v>1.51</v>
@@ -91652,16 +91657,16 @@
     </row>
     <row r="94" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B94" s="2">
         <v>46077.916666666657</v>
       </c>
       <c r="C94" t="s">
+        <v>344</v>
+      </c>
+      <c r="F94" t="s">
         <v>345</v>
-      </c>
-      <c r="F94" t="s">
-        <v>346</v>
       </c>
       <c r="I94">
         <v>1.1399999999999999</v>
@@ -91802,7 +91807,7 @@
         <v>28.72</v>
       </c>
       <c r="BC94" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:55" x14ac:dyDescent="0.25">
@@ -91813,10 +91818,10 @@
         <v>46077.916666666657</v>
       </c>
       <c r="C95" t="s">
+        <v>347</v>
+      </c>
+      <c r="F95" t="s">
         <v>348</v>
-      </c>
-      <c r="F95" t="s">
-        <v>349</v>
       </c>
       <c r="I95">
         <v>3.52</v>
